--- a/Banks.xlsx
+++ b/Banks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yanni\Documents\GitHub\Mario-Wonderland\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{802ACCB3-CD85-4C36-A960-B447C932DDFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FCC0C3A-1446-4B40-8B69-F61AD510E37F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8828EEFA-B14A-4859-AE79-DF9168E4824B}"/>
+    <workbookView xWindow="1848" yWindow="1848" windowWidth="17280" windowHeight="8880" xr2:uid="{8828EEFA-B14A-4859-AE79-DF9168E4824B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -194,11 +194,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -209,13 +208,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -554,7 +553,7 @@
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:D10"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -573,7 +572,7 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -600,7 +599,7 @@
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="7">
+      <c r="A5" s="6">
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -609,67 +608,69 @@
       <c r="C5" s="2">
         <v>1824</v>
       </c>
-      <c r="D5" s="4">
-        <f xml:space="preserve"> SUM(C5:C10)</f>
-        <v>4704</v>
+      <c r="D5" s="3">
+        <f xml:space="preserve"> SUM(C5:C11)</f>
+        <v>5232</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="8"/>
+      <c r="A6" s="7"/>
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="2">
         <v>480</v>
       </c>
-      <c r="D6" s="5"/>
+      <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="8"/>
+      <c r="A7" s="7"/>
       <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="2">
-        <v>272</v>
-      </c>
-      <c r="D7" s="5"/>
+        <v>528</v>
+      </c>
+      <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="9"/>
+      <c r="A8" s="7"/>
       <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="2">
         <v>256</v>
       </c>
-      <c r="D8" s="5"/>
+      <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
+      <c r="A9" s="7"/>
       <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="2">
         <v>1392</v>
       </c>
-      <c r="D9" s="5"/>
+      <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
+      <c r="A10" s="7"/>
       <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="2">
-        <v>480</v>
-      </c>
-      <c r="D10" s="6"/>
+        <v>672</v>
+      </c>
+      <c r="D10" s="5"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
+      <c r="A11" s="8"/>
       <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="2"/>
+      <c r="C11" s="2">
+        <v>80</v>
+      </c>
       <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -902,8 +903,8 @@
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A5:A8"/>
     <mergeCell ref="D5:D10"/>
+    <mergeCell ref="A5:A11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
